--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="2066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="2064">
   <si>
     <t>date</t>
   </si>
@@ -6112,9 +6112,6 @@
     <t>সাবেক প্রধান বিচারপতি ও অ্যাটর্নি জেনারেলের ব্যাংক হিসাব জব্দ</t>
   </si>
   <si>
-    <t>ভোট কিনে ক্ষমতায় এসে পালাতে বাধ্য হয়েছে: ড. কামাল</t>
-  </si>
-  <si>
     <t>ঢাকা দক্ষিণ সিটি : মহড়া চাঁদাবাজি মারধরে নগর ভবনে অস্থিরতা</t>
   </si>
   <si>
@@ -6206,9 +6203,6 @@
   </si>
   <si>
     <t>ভারতের পশ্চিমবঙ্গে ফারাক্কা ব্যারাজের গেট খুলে দেওয়ার পর নদীটির পানি গতকাল ৪ সেন্টিমিটার বেড়েছিল। আজ শুক্রবার সকাল থেকে তা আবার কমতে শুরু করেছে।</t>
-  </si>
-  <si>
-    <t>স্ত্রীকে বলেছিলেন ১০ মিনিটে ফিরবেন, পথেই গুলিবিদ্ধ হন মুরাদ</t>
   </si>
 </sst>
 </file>
@@ -28485,7 +28479,7 @@
         <v>2033</v>
       </c>
       <c r="C1998" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1999" ht="15.75" customHeight="1">
@@ -28496,7 +28490,7 @@
         <v>2034</v>
       </c>
       <c r="C1999" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2000" ht="15.75" customHeight="1">
@@ -28507,7 +28501,7 @@
         <v>2035</v>
       </c>
       <c r="C2000" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2001" ht="15.75" customHeight="1">
@@ -28540,7 +28534,7 @@
         <v>2038</v>
       </c>
       <c r="C2003" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2004" ht="15.75" customHeight="1">
@@ -28562,15 +28556,15 @@
         <v>2040</v>
       </c>
       <c r="C2005" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2006" ht="15.75" customHeight="1">
       <c r="A2006" s="5" t="s">
-        <v>2008</v>
+        <v>2041</v>
       </c>
       <c r="B2006" s="4" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C2006" s="4" t="s">
         <v>14</v>
@@ -28578,18 +28572,18 @@
     </row>
     <row r="2007" ht="15.75" customHeight="1">
       <c r="A2007" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2007" s="4" t="s">
         <v>2043</v>
       </c>
       <c r="C2007" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2008" ht="15.75" customHeight="1">
       <c r="A2008" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2008" s="4" t="s">
         <v>2044</v>
@@ -28600,18 +28594,18 @@
     </row>
     <row r="2009" ht="15.75" customHeight="1">
       <c r="A2009" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2009" s="4" t="s">
         <v>2045</v>
       </c>
       <c r="C2009" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2010" ht="15.75" customHeight="1">
       <c r="A2010" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2010" s="4" t="s">
         <v>2046</v>
@@ -28622,51 +28616,51 @@
     </row>
     <row r="2011" ht="15.75" customHeight="1">
       <c r="A2011" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2011" s="4" t="s">
         <v>2047</v>
       </c>
       <c r="C2011" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2012" ht="15.75" customHeight="1">
       <c r="A2012" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2012" s="4" t="s">
         <v>2048</v>
       </c>
       <c r="C2012" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2013" ht="15.75" customHeight="1">
       <c r="A2013" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2013" s="4" t="s">
         <v>2049</v>
       </c>
       <c r="C2013" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2014" ht="15.75" customHeight="1">
       <c r="A2014" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2014" s="4" t="s">
         <v>2050</v>
       </c>
       <c r="C2014" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2015" ht="15.75" customHeight="1">
       <c r="A2015" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2015" s="4" t="s">
         <v>2051</v>
@@ -28677,7 +28671,7 @@
     </row>
     <row r="2016" ht="15.75" customHeight="1">
       <c r="A2016" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2016" s="4" t="s">
         <v>2052</v>
@@ -28688,7 +28682,7 @@
     </row>
     <row r="2017" ht="15.75" customHeight="1">
       <c r="A2017" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2017" s="4" t="s">
         <v>2053</v>
@@ -28699,18 +28693,18 @@
     </row>
     <row r="2018" ht="15.75" customHeight="1">
       <c r="A2018" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2018" s="4" t="s">
         <v>2054</v>
       </c>
       <c r="C2018" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2019" ht="15.75" customHeight="1">
       <c r="A2019" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2019" s="4" t="s">
         <v>2055</v>
@@ -28721,7 +28715,7 @@
     </row>
     <row r="2020" ht="15.75" customHeight="1">
       <c r="A2020" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2020" s="4" t="s">
         <v>2056</v>
@@ -28732,18 +28726,18 @@
     </row>
     <row r="2021" ht="15.75" customHeight="1">
       <c r="A2021" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2021" s="4" t="s">
         <v>2057</v>
       </c>
       <c r="C2021" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2022" ht="15.75" customHeight="1">
       <c r="A2022" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2022" s="4" t="s">
         <v>2058</v>
@@ -28754,40 +28748,40 @@
     </row>
     <row r="2023" ht="15.75" customHeight="1">
       <c r="A2023" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2023" s="4" t="s">
         <v>2059</v>
       </c>
       <c r="C2023" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2024" ht="15.75" customHeight="1">
       <c r="A2024" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2024" s="4" t="s">
         <v>2060</v>
       </c>
       <c r="C2024" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2025" ht="15.75" customHeight="1">
       <c r="A2025" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2025" s="4" t="s">
         <v>2061</v>
       </c>
       <c r="C2025" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2026" ht="15.75" customHeight="1">
       <c r="A2026" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2026" s="4" t="s">
         <v>2062</v>
@@ -28797,36 +28791,14 @@
       </c>
     </row>
     <row r="2027" ht="15.75" customHeight="1">
-      <c r="A2027" s="5" t="s">
-        <v>2042</v>
+      <c r="A2027" s="6" t="s">
+        <v>2041</v>
       </c>
       <c r="B2027" s="4" t="s">
         <v>2063</v>
       </c>
       <c r="C2027" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2028" ht="15.75" customHeight="1">
-      <c r="A2028" s="6" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B2028" s="4" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C2028" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2029" ht="15.75" customHeight="1">
-      <c r="A2029" s="6" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B2029" s="4" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C2029" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
